--- a/Aniversario.xlsx
+++ b/Aniversario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/501905e31ea37783/Escritorio/Aniversario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/501905e31ea37783/Escritorio/Aniversario/page_deploy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2E19FF35-783E-463F-9BBC-7F4D066D8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61BD6AC-DD30-42AD-9079-986A19B22817}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{2E19FF35-783E-463F-9BBC-7F4D066D8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBCAE9A-B19B-4DA8-A19A-0E2E9892F9A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
   <si>
     <t>Inicio</t>
   </si>
@@ -412,7 +412,19 @@
 Al día siguiente me hiciste arroz con leche y fuimos al gimnasio juntos. Que arroz con leche tan rico wow. Jugamos a las palabras que dice el otro y en el gimnasio nos hicimos un masajito</t>
   </si>
   <si>
-    <t>Esta semana hicimos un simulacro decembrino con los muchachos y nos tomamos una de esas fotos que le vamos a mostrar a nuestros hijos. Ya el domingo te hice visita y sacamos a tommy, ud me hizo un video corriendo con él lol.</t>
+    <t xml:space="preserve">Esta semana hicimos un simulacro decembrino con los muchachos y nos tomamos una de esas fotos que le vamos a mostrar a nuestros hijos. Ya el domingo te hice visita y sacamos a tommy, ud me hizo un video corriendo con él lol.
+Esa semana también fuimos a entrenar y sucedió el choque que gracias al de arriba no me pasó nada. Y finalmente, fuimos a Arkadia y compré ropita para Cartagena, que cada vez está más cercaaaaaaaaaaaaa :D </t>
+  </si>
+  <si>
+    <t>Esta semana pasaron bastantes cositas.
+Fuimos a tomar granizado con Matías y dizque a emborracharlo y los que terminamos embalados fuimos vos y yo que vomitamos ambos JAJAJAJA. Lo rico es que ese día dormimos juntos.
+También fuimos a Natty papas y nos comimos unas papas del tamaño de mi cabeza y la suya combinadas. Pasamos demasiado bueno comiendo eso pero que llenura, esa misma noche fuimos al BBC y jugamos UNO, empezaste ganando pero te remonté ;).
+Y también sucedió algo super gracioso, estaba cocinando para hacernos la cena Y BOTÉ TODO, el jamón, los huevos, la dignidad. Mejor dicho, quedé como un payaso y todo grabado.
+Finalmente, fuimos a la villa y te tomé fotos in fraganti, una pelada de UPB parchando en la vida, nunca visto antes.</t>
+  </si>
+  <si>
+    <t>Esta es la última semana, nuestra final previo a nuestro primer aniversario y estoy demasiado emocionado, torturándote un poco con los regalos sin darte ninguna pista, todo es demasiado increíble.
+Fuimos a comer perra de la 80 el sábado y nos sentamos en un OXXO a tomar granizado de milo y hablar, a ver la mujer de mis sueños.</t>
   </si>
 </sst>
 </file>
@@ -521,6 +533,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6CB641-13D5-491A-AA36-B7F2CC0CAEDC}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1673,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45912</v>
       </c>
@@ -1671,7 +1687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45919</v>
       </c>
@@ -1681,12 +1697,11 @@
       <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="1" t="str">
-        <f>"Test - " &amp;Table1[[#This Row],[Semana]]</f>
-        <v>Test - Week 51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45926</v>
       </c>
@@ -1696,9 +1711,8 @@
       <c r="C53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="1" t="str">
-        <f>"Test - " &amp;Table1[[#This Row],[Semana]]</f>
-        <v>Test - Week 52</v>
+      <c r="D53" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Aniversario.xlsx
+++ b/Aniversario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/501905e31ea37783/Escritorio/Aniversario/page_deploy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{2E19FF35-783E-463F-9BBC-7F4D066D8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBCAE9A-B19B-4DA8-A19A-0E2E9892F9A7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{2E19FF35-783E-463F-9BBC-7F4D066D8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E1C4DCA-5B6F-44BD-8C04-0F9CFD2EB94F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,10 @@
   </si>
   <si>
     <t>Esta es la última semana, nuestra final previo a nuestro primer aniversario y estoy demasiado emocionado, torturándote un poco con los regalos sin darte ninguna pista, todo es demasiado increíble.
-Fuimos a comer perra de la 80 el sábado y nos sentamos en un OXXO a tomar granizado de milo y hablar, a ver la mujer de mis sueños.</t>
+Fuimos a comer perra de la 80 el sábado y nos sentamos en un OXXO a tomar granizado de milo y hablar, a ver la mujer de mis sueños.
+Siguieron los preparativos del aniversario, y en uno de esos días fuimos a cine y nos vimos la nueva de Kimetsu, nos viciamos tanto que nos leímos el manga completo JAJAJA. Amor imagínese ud leyendo manga, increíble.
+Ya el resto de la semana no estuvimos juntos porque estábamos preparando la sorpresa de cada uno. Acá acaba el diario de nuestro aniversario.
+TE AMO.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6CB641-13D5-491A-AA36-B7F2CC0CAEDC}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1704,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45926</v>
       </c>
